--- a/load_pred/model_metrics.xlsx
+++ b/load_pred/model_metrics.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\load_pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD6799B-426D-4C31-8A55-4A3F30041BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2002995E-708A-43BE-A3C2-CE554497686C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>model</t>
   </si>
@@ -76,6 +85,15 @@
   </si>
   <si>
     <t>DeepAR_optuna</t>
+  </si>
+  <si>
+    <t>Heuristic</t>
+  </si>
+  <si>
+    <t>CV-RMSE</t>
+  </si>
+  <si>
+    <t>MAPE(100)</t>
   </si>
 </sst>
 </file>
@@ -393,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -404,7 +422,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,31 +433,37 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -453,28 +477,36 @@
         <v>3.7999963849691198</v>
       </c>
       <c r="E2">
+        <f>D2/100</f>
+        <v>3.7999963849691197E-2</v>
+      </c>
+      <c r="F2">
         <v>6.1737397106522103E-2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3.8096853842949598</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14.5137027273106</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3.6985079942989199</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.57016248472839204</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.94342701727381795</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3.7652439677840701</v>
       </c>
+      <c r="M2">
+        <f>G2/73.6</f>
+        <v>5.1762029677920651E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -488,28 +520,36 @@
         <v>5.1777090329369999</v>
       </c>
       <c r="E3">
+        <f>D3/100</f>
+        <v>5.1777090329370001E-2</v>
+      </c>
+      <c r="F3">
         <v>1.8680688694235399</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.6075745404043102</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>31.4448922261906</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.0678927561814504</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.78126702190599395</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.87743090938527402</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5.1603321331274801</v>
       </c>
+      <c r="M3">
+        <f>G3/73.6</f>
+        <v>7.6189871472884654E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -523,28 +563,36 @@
         <v>5.1864323606526996</v>
       </c>
       <c r="E4">
+        <f>D4/100</f>
+        <v>5.1864323606526999E-2</v>
+      </c>
+      <c r="F4">
         <v>1.6675891346768099</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>5.1003924271406396</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>26.014002910833501</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4.9019549228818899</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.75568602343570301</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.89859998065523805</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4.9897223379402202</v>
       </c>
+      <c r="M4">
+        <f>G4/73.6</f>
+        <v>6.9298810151367393E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -558,98 +606,147 @@
         <v>6.0143419088404197</v>
       </c>
       <c r="E5">
+        <f>D5/100</f>
+        <v>6.0143419088404197E-2</v>
+      </c>
+      <c r="F5">
         <v>0.18951917076748601</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.8664852547736004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>47.148619754023301</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>5.88986010711813</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.90798161814266198</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.81621932727831803</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5.8901382613006703</v>
       </c>
+      <c r="M5">
+        <f>G5/73.6</f>
+        <v>9.3294636613771756E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>4.9182618896195498</v>
+      </c>
+      <c r="D6">
+        <v>7.1260115701425999</v>
+      </c>
+      <c r="E6">
+        <f>D6/100</f>
+        <v>7.1260115701425999E-2</v>
+      </c>
+      <c r="G6">
+        <v>8.1621361384648505</v>
+      </c>
+      <c r="M6">
+        <v>0.112028417496207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>11.9492313654392</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5.3524598874923397</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>8.2878187313251495</v>
       </c>
-      <c r="E6">
+      <c r="E7">
+        <f>D7/100</f>
+        <v>8.28781873132515E-2</v>
+      </c>
+      <c r="F7">
         <v>3.92871822767516</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>8.6900450772892697</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>75.516883445319493</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>7.4553959746721299</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>1.14932483588125</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>0.70564263145282502</v>
       </c>
-      <c r="K6">
+      <c r="L7">
         <v>7.4881744243713602</v>
       </c>
+      <c r="M7">
+        <f>G7/73.6</f>
+        <v>0.11807126463708248</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>14.04</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>6.97</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>9.83</v>
       </c>
-      <c r="E7">
+      <c r="E8">
+        <f>D8/100</f>
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="F8">
         <v>0.37</v>
       </c>
-      <c r="F7">
+      <c r="G8">
         <v>10.33</v>
       </c>
-      <c r="G7">
+      <c r="H8">
         <v>106.89</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>9.7100000000000009</v>
       </c>
-      <c r="I7">
+      <c r="J8">
         <v>1.54</v>
       </c>
-      <c r="J7">
+      <c r="K8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>9.93</v>
+      </c>
+      <c r="M8">
+        <f>G8/73.6</f>
+        <v>0.14035326086956523</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M8">
+    <sortCondition ref="D1:D8"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>